--- a/Test cases/Тест-кейсы проверки кнопки забронировать..xlsx
+++ b/Test cases/Тест-кейсы проверки кнопки забронировать..xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapad\OneDrive\Рабочий стол\Портфолио\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapad\git\QA_engineer_Yandex.Practicum\Test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8AAC4C0-0D63-4219-86BD-66EACAB54B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB01424-CD7D-4744-AB17-2825BDA6606E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A4CCD3DB-2C50-442B-8C63-A1E81EACE706}"/>
   </bookViews>
@@ -459,64 +459,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -834,7 +834,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,17 +849,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -900,13 +900,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3">
@@ -915,55 +915,55 @@
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="3">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="20"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3">
@@ -975,72 +975,72 @@
       <c r="F7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="33">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="32">
         <v>2</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="34" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="37"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="7">
@@ -1049,75 +1049,75 @@
       <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="39">
         <v>2</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="9">
@@ -1126,109 +1126,109 @@
       <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="30">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="41">
         <v>2</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="7">
         <v>3</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="11">
         <v>4</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="21">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="39">
         <v>5</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="7">
@@ -1237,92 +1237,106 @@
       <c r="E24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="21">
+      <c r="A25" s="21"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="39">
         <v>2</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="13">
         <v>3</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
     <mergeCell ref="I7:I11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
@@ -1339,28 +1353,14 @@
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="G7:G11"/>
     <mergeCell ref="H7:H11"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="H17:H23"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="I24:I29"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{E482A061-374F-4435-BDAE-FA8BF407A7FF}"/>
